--- a/Data/Results/Affinity_Summary_2019.xlsx
+++ b/Data/Results/Affinity_Summary_2019.xlsx
@@ -14,81 +14,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Ticker</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Center</t>
   </si>
   <si>
     <t>Count</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>ATVI</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>ATUS</t>
-  </si>
-  <si>
-    <t>AMC</t>
-  </si>
-  <si>
-    <t>AMAT</t>
-  </si>
-  <si>
-    <t>DLR</t>
-  </si>
-  <si>
-    <t>EQIX</t>
-  </si>
-  <si>
-    <t>EXPE</t>
-  </si>
-  <si>
-    <t>FLT</t>
-  </si>
-  <si>
-    <t>FOX</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>ZUO</t>
-  </si>
-  <si>
-    <t>CHGG</t>
-  </si>
-  <si>
-    <t>IAC</t>
-  </si>
-  <si>
-    <t>DKNG</t>
-  </si>
-  <si>
-    <t>CMLS</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>PCTY</t>
-  </si>
-  <si>
-    <t>TDS</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>OSTK</t>
+    <t>ATEN_2015</t>
+  </si>
+  <si>
+    <t>ATEN_2016</t>
+  </si>
+  <si>
+    <t>ATEN_2017</t>
+  </si>
+  <si>
+    <t>ATEN_2019</t>
+  </si>
+  <si>
+    <t>ATVI_2011</t>
+  </si>
+  <si>
+    <t>ATVI_2016</t>
+  </si>
+  <si>
+    <t>ADBE_2013</t>
+  </si>
+  <si>
+    <t>ADBE_2017</t>
+  </si>
+  <si>
+    <t>ADBE_2018</t>
+  </si>
+  <si>
+    <t>AMD_2013</t>
+  </si>
+  <si>
+    <t>AMZN_2015</t>
+  </si>
+  <si>
+    <t>AMCX_2013</t>
+  </si>
+  <si>
+    <t>AMCX_2018</t>
+  </si>
+  <si>
+    <t>AMCX_2020</t>
+  </si>
+  <si>
+    <t>AMAT_2018</t>
+  </si>
+  <si>
+    <t>ADSK_2018</t>
+  </si>
+  <si>
+    <t>BBY_2014</t>
+  </si>
+  <si>
+    <t>BBY_2017</t>
+  </si>
+  <si>
+    <t>BKI_2020</t>
+  </si>
+  <si>
+    <t>BKNG_2011</t>
+  </si>
+  <si>
+    <t>BKNG_2014</t>
   </si>
 </sst>
 </file>
@@ -446,16 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -479,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -490,10 +481,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -501,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -512,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -523,7 +514,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -534,10 +525,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -545,10 +536,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -556,10 +547,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -567,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -578,10 +569,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -589,10 +580,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -600,10 +591,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -611,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -622,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -633,7 +624,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -644,7 +635,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -655,7 +646,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -666,7 +657,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -677,7 +668,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -688,21 +679,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
